--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -14,163 +14,163 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>sampleid</t>
-  </si>
-  <si>
-    <t>sampleportion</t>
-  </si>
-  <si>
-    <t>lys</t>
-  </si>
-  <si>
-    <t>tyr</t>
-  </si>
-  <si>
-    <t>pea</t>
-  </si>
-  <si>
-    <t>hypro</t>
-  </si>
-  <si>
-    <t>rawdatapathway</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>leu</t>
-  </si>
-  <si>
-    <t>hyl2</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>ile</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>extractiontype</t>
-  </si>
-  <si>
-    <t>b_ala</t>
-  </si>
-  <si>
-    <t>gln</t>
-  </si>
-  <si>
-    <t>gaba</t>
-  </si>
-  <si>
-    <t>tau</t>
-  </si>
-  <si>
-    <t>carn</t>
-  </si>
-  <si>
-    <t>gly</t>
-  </si>
-  <si>
-    <t>baib</t>
-  </si>
-  <si>
-    <t>aada</t>
-  </si>
-  <si>
-    <t>glu</t>
-  </si>
-  <si>
-    <t>trp</t>
-  </si>
-  <si>
-    <t>cys</t>
-  </si>
-  <si>
-    <t>nh3</t>
-  </si>
-  <si>
-    <t>criticalproduct</t>
-  </si>
-  <si>
-    <t>pser</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>onemh</t>
-  </si>
-  <si>
-    <t>cit</t>
-  </si>
-  <si>
-    <t>alle</t>
-  </si>
-  <si>
-    <t>arg</t>
-  </si>
-  <si>
-    <t>criticalapparatuscriticalsoftware</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>sar</t>
-  </si>
-  <si>
-    <t>ans</t>
-  </si>
-  <si>
-    <t>ser</t>
-  </si>
-  <si>
-    <t>phe</t>
-  </si>
-  <si>
-    <t>orn</t>
-  </si>
-  <si>
-    <t>aaba</t>
-  </si>
-  <si>
-    <t>asn</t>
-  </si>
-  <si>
-    <t>asp</t>
-  </si>
-  <si>
-    <t>thr</t>
-  </si>
-  <si>
-    <t>threemh</t>
-  </si>
-  <si>
-    <t>cyst</t>
-  </si>
-  <si>
-    <t>laboratoryoperatingmode</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>ExtractionType</t>
+  </si>
+  <si>
+    <t>OneMH</t>
+  </si>
+  <si>
+    <t>ThreeMH</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>AADA</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>B_Ala</t>
+  </si>
+  <si>
+    <t>BAIb</t>
+  </si>
+  <si>
+    <t>Carn</t>
+  </si>
+  <si>
+    <t>Cit</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Cyst</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>GABA</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>HyPro</t>
+  </si>
+  <si>
+    <t>Hyl2</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>Orn</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>PSer</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Sar</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Val</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#float</t>
-  </si>
-  <si>
-    <t>#date</t>
   </si>
 </sst>
 </file>
@@ -384,145 +384,145 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF2" t="s">
         <v>52</v>
       </c>
       <c r="AG2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AV2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AX2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>Operator</t>
   </si>
@@ -35,12 +35,12 @@
     <t>RawDataPathway</t>
   </si>
   <si>
+    <t>ExtractionType</t>
+  </si>
+  <si>
     <t>SamplePortion</t>
   </si>
   <si>
-    <t>ExtractionType</t>
-  </si>
-  <si>
     <t>OneMH</t>
   </si>
   <si>
@@ -170,7 +170,40 @@
     <t>#date</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#float,  unit:µlormg</t>
+  </si>
+  <si>
+    <t>#float,  unit:µmole/ml</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#TypeExtraction</t>
+  </si>
+  <si>
+    <t>#PriseEssai</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -215,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -396,133 +429,285 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AO2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AQ2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AR2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AU2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AV2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AW2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AX2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>ExtractionType</t>
   </si>
   <si>
@@ -164,37 +164,37 @@
     <t>Val</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float,  unit:µlormg</t>
   </si>
   <si>
     <t>#float,  unit:µmole/ml</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#TypeExtraction</t>
@@ -411,25 +411,25 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -164,6 +167,9 @@
     <t>Val</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -176,25 +182,28 @@
     <t>#float,  unit:µmole/ml</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#TypeExtraction</t>
@@ -204,6 +213,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -405,309 +417,327 @@
       <c r="AX1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AP2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AQ2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AR2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AS2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AT2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AV2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AX2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AC3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AE3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AH3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AL3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AM3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AN3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AO3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AP3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AQ3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AR3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AS3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AT3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AU3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AV3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AX3" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -38,12 +38,6 @@
     <t>SampleID</t>
   </si>
   <si>
-    <t>ExtractionType</t>
-  </si>
-  <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
     <t>OneMH</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float,  unit:µlormg</t>
-  </si>
-  <si>
     <t>#float,  unit:µmole/ml</t>
   </si>
   <si>
@@ -204,12 +195,6 @@
   </si>
   <si>
     <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#TypeExtraction</t>
-  </si>
-  <si>
-    <t>#PriseEssai</t>
   </si>
   <si>
     <t/>
@@ -260,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,327 +402,309 @@
       <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AH2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AK2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AL2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AM2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AN2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AP2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AQ2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AR2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AS2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AT2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AU2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AV2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AW2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AX2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX3" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="86">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,6 +41,9 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>OneMH</t>
   </si>
   <si>
@@ -161,7 +167,37 @@
     <t>Val</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -170,37 +206,70 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float,  unit:µmole/ml</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t>#float</t>
+  </si>
+  <si>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
   </si>
 </sst>
 </file>
@@ -245,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -402,309 +471,628 @@
       <c r="AX1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AB2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AF2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AG2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AH2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AI2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AJ2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AM2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AN2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AO2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AP2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AQ2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AR2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AT2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AU2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AV2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AW2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AX2" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AE3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AF3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AI3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AJ3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AL3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AM3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AN3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AO3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AP3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AQ3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AR3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AS3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AT3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AV3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AW3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AX3" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/uplc.xlsx
+++ b/template_pegase_v1/uplc.xlsx
@@ -41,132 +41,132 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>OneMH</t>
+  </si>
+  <si>
+    <t>ThreeMH</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>AADA</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>B_Ala</t>
+  </si>
+  <si>
+    <t>BAIb</t>
+  </si>
+  <si>
+    <t>Carn</t>
+  </si>
+  <si>
+    <t>Cit</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Cyst</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>GABA</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>HyPro</t>
+  </si>
+  <si>
+    <t>Hyl2</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>Orn</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>PSer</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Sar</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>OneMH</t>
-  </si>
-  <si>
-    <t>ThreeMH</t>
-  </si>
-  <si>
-    <t>AABA</t>
-  </si>
-  <si>
-    <t>AADA</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>Ans</t>
-  </si>
-  <si>
-    <t>Arg</t>
-  </si>
-  <si>
-    <t>Asn</t>
-  </si>
-  <si>
-    <t>Asp</t>
-  </si>
-  <si>
-    <t>B_Ala</t>
-  </si>
-  <si>
-    <t>BAIb</t>
-  </si>
-  <si>
-    <t>Carn</t>
-  </si>
-  <si>
-    <t>Cit</t>
-  </si>
-  <si>
-    <t>Cys</t>
-  </si>
-  <si>
-    <t>Cyst</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>GABA</t>
-  </si>
-  <si>
-    <t>Gln</t>
-  </si>
-  <si>
-    <t>Glu</t>
-  </si>
-  <si>
-    <t>Gly</t>
-  </si>
-  <si>
-    <t>His</t>
-  </si>
-  <si>
-    <t>HyPro</t>
-  </si>
-  <si>
-    <t>Hyl2</t>
-  </si>
-  <si>
-    <t>Ile</t>
-  </si>
-  <si>
-    <t>Leu</t>
-  </si>
-  <si>
-    <t>Lys</t>
-  </si>
-  <si>
-    <t>Met</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>Orn</t>
-  </si>
-  <si>
-    <t>PEA</t>
-  </si>
-  <si>
-    <t>PSer</t>
-  </si>
-  <si>
-    <t>Phe</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>Sar</t>
-  </si>
-  <si>
-    <t>Ser</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>Trp</t>
-  </si>
-  <si>
-    <t>Tyr</t>
-  </si>
-  <si>
-    <t>Val</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -194,12 +194,12 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t># Commentaire</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>#date</t>
   </si>
   <si>
@@ -236,10 +236,10 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
-  </si>
-  <si>
-    <t># format: nombre décimal ou NA</t>
   </si>
   <si>
     <t># ex: 12/06/2019</t>
@@ -507,124 +507,124 @@
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AP2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AR2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AU2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AV2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AY2" t="s">
         <v>61</v>
@@ -659,130 +659,130 @@
         <v>63</v>
       </c>
       <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY3" t="s">
         <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -817,124 +817,124 @@
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AR4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AT4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AV4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY4" t="s">
         <v>75</v>
@@ -969,7 +969,7 @@
         <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -1092,7 +1092,7 @@
         <v>85</v>
       </c>
       <c r="AY5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
